--- a/scoring/tests/CSEI/CSEI93_test_2.xlsx
+++ b/scoring/tests/CSEI/CSEI93_test_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="outputs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="question_answers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="outputs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -670,7 +670,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -780,7 +780,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -900,7 +900,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>moderate</t>
+          <t>mild</t>
         </is>
       </c>
     </row>

--- a/scoring/tests/CSEI/CSEI93_test_2.xlsx
+++ b/scoring/tests/CSEI/CSEI93_test_2.xlsx
@@ -440,7 +440,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -500,7 +500,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -510,7 +510,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -520,7 +520,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -690,7 +690,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -850,7 +850,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -860,7 +860,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -870,7 +870,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -910,7 +910,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -980,7 +980,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8">
